--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dlk1</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H2">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>3.215006657038221</v>
+        <v>0.5946854570666668</v>
       </c>
       <c r="R2">
-        <v>28.93505991334399</v>
+        <v>5.3521691136</v>
       </c>
       <c r="S2">
-        <v>0.0001321909147936595</v>
+        <v>3.197399041057454E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001321909147936595</v>
+        <v>3.197399041057453E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H3">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>3.211378851015111</v>
+        <v>13.92135372369067</v>
       </c>
       <c r="R3">
-        <v>28.902409659136</v>
+        <v>125.292183513216</v>
       </c>
       <c r="S3">
-        <v>0.0001320417508733177</v>
+        <v>0.0007484985973242011</v>
       </c>
       <c r="T3">
-        <v>0.0001320417508733177</v>
+        <v>0.0007484985973242013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H4">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>3.950043964672</v>
+        <v>19.922540490752</v>
       </c>
       <c r="R4">
-        <v>35.550395682048</v>
+        <v>179.302864416768</v>
       </c>
       <c r="S4">
-        <v>0.0001624133262747884</v>
+        <v>0.001071159738372712</v>
       </c>
       <c r="T4">
-        <v>0.0001624133262747884</v>
+        <v>0.001071159738372712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H5">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>5.269229925624888</v>
+        <v>16.30896437584</v>
       </c>
       <c r="R5">
-        <v>47.423069330624</v>
+        <v>146.78067938256</v>
       </c>
       <c r="S5">
-        <v>0.0002166540845573744</v>
+        <v>0.0008768714021218306</v>
       </c>
       <c r="T5">
-        <v>0.0002166540845573744</v>
+        <v>0.0008768714021218308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>522.552765</v>
       </c>
       <c r="I6">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J6">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>4796.302924951836</v>
+        <v>204.6548873413334</v>
       </c>
       <c r="R6">
-        <v>43166.72632456653</v>
+        <v>1841.893986072</v>
       </c>
       <c r="S6">
-        <v>0.1972088206688122</v>
+        <v>0.01100352014257419</v>
       </c>
       <c r="T6">
-        <v>0.1972088206688122</v>
+        <v>0.01100352014257419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>522.552765</v>
       </c>
       <c r="I7">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J7">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>4790.890787903313</v>
@@ -883,10 +883,10 @@
         <v>43118.01709112983</v>
       </c>
       <c r="S7">
-        <v>0.1969862906949266</v>
+        <v>0.2575880985321587</v>
       </c>
       <c r="T7">
-        <v>0.1969862906949266</v>
+        <v>0.2575880985321588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>522.552765</v>
       </c>
       <c r="I8">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J8">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>5892.867244915141</v>
+        <v>6856.137528231041</v>
       </c>
       <c r="R8">
-        <v>53035.80520423626</v>
+        <v>61705.23775407937</v>
       </c>
       <c r="S8">
-        <v>0.2422960805252427</v>
+        <v>0.3686286136246715</v>
       </c>
       <c r="T8">
-        <v>0.2422960805252427</v>
+        <v>0.3686286136246716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>522.552765</v>
       </c>
       <c r="I9">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J9">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>7860.892869130361</v>
+        <v>5612.562451846175</v>
       </c>
       <c r="R9">
-        <v>70748.03582217325</v>
+        <v>50513.06206661557</v>
       </c>
       <c r="S9">
-        <v>0.3232150755241635</v>
+        <v>0.3017662797729431</v>
       </c>
       <c r="T9">
-        <v>0.3232150755241635</v>
+        <v>0.3017662797729431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H10">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I10">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J10">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>198.1600953150353</v>
+        <v>12.67578941546667</v>
       </c>
       <c r="R10">
-        <v>1783.440857835318</v>
+        <v>114.0821047392</v>
       </c>
       <c r="S10">
-        <v>0.008147716962870928</v>
+        <v>0.0006815293099914464</v>
       </c>
       <c r="T10">
-        <v>0.008147716962870928</v>
+        <v>0.0006815293099914464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H11">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I11">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J11">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>197.9364919250546</v>
+        <v>296.7352674977946</v>
       </c>
       <c r="R11">
-        <v>1781.428427325492</v>
+        <v>2670.617407480152</v>
       </c>
       <c r="S11">
-        <v>0.008138523098028441</v>
+        <v>0.01595433432028611</v>
       </c>
       <c r="T11">
-        <v>0.008138523098028443</v>
+        <v>0.01595433432028611</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H12">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I12">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J12">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>243.464842234284</v>
+        <v>424.651258713344</v>
       </c>
       <c r="R12">
-        <v>2191.183580108556</v>
+        <v>3821.861328420096</v>
       </c>
       <c r="S12">
-        <v>0.01001050499991589</v>
+        <v>0.02283189392407949</v>
       </c>
       <c r="T12">
-        <v>0.01001050499991589</v>
+        <v>0.0228318939240795</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.788518</v>
+      </c>
+      <c r="H13">
+        <v>32.365554</v>
+      </c>
+      <c r="I13">
+        <v>0.05815837308171015</v>
+      </c>
+      <c r="J13">
+        <v>0.05815837308171016</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>32.221985</v>
+      </c>
+      <c r="N13">
+        <v>96.665955</v>
+      </c>
+      <c r="O13">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="P13">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="Q13">
+        <v>347.6274651682299</v>
+      </c>
+      <c r="R13">
+        <v>3128.647186514069</v>
+      </c>
+      <c r="S13">
+        <v>0.0186906155273531</v>
+      </c>
+      <c r="T13">
+        <v>0.0186906155273531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.196452999999999</v>
-      </c>
-      <c r="H13">
-        <v>21.589359</v>
-      </c>
-      <c r="I13">
-        <v>0.03965043251035593</v>
-      </c>
-      <c r="J13">
-        <v>0.03965043251035594</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>45.12975566666666</v>
-      </c>
-      <c r="N13">
-        <v>135.389267</v>
-      </c>
-      <c r="O13">
-        <v>0.3367854170582615</v>
-      </c>
-      <c r="P13">
-        <v>0.3367854170582615</v>
-      </c>
-      <c r="Q13">
-        <v>324.7741655566502</v>
-      </c>
-      <c r="R13">
-        <v>2922.967490009853</v>
-      </c>
-      <c r="S13">
-        <v>0.01335368744954067</v>
-      </c>
-      <c r="T13">
-        <v>0.01335368744954068</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.174933333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.5248</v>
+      </c>
+      <c r="O14">
+        <v>0.01171850713626266</v>
+      </c>
+      <c r="P14">
+        <v>0.01171850713626266</v>
+      </c>
+      <c r="Q14">
+        <v>0.02759526755555556</v>
+      </c>
+      <c r="R14">
+        <v>0.248357408</v>
+      </c>
+      <c r="S14">
+        <v>1.483693286448838E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.483693286448837E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.50472933333333</v>
+      </c>
+      <c r="N15">
+        <v>82.514188</v>
+      </c>
+      <c r="O15">
+        <v>0.2743256641287217</v>
+      </c>
+      <c r="P15">
+        <v>0.2743256641287218</v>
+      </c>
+      <c r="Q15">
+        <v>0.6459944096088889</v>
+      </c>
+      <c r="R15">
+        <v>5.81394968648</v>
+      </c>
+      <c r="S15">
+        <v>3.47326789526717E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.473267895267171E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>39.361408</v>
+      </c>
+      <c r="N16">
+        <v>118.084224</v>
+      </c>
+      <c r="O16">
+        <v>0.3925813724534833</v>
+      </c>
+      <c r="P16">
+        <v>0.3925813724534833</v>
+      </c>
+      <c r="Q16">
+        <v>0.9244682692266667</v>
+      </c>
+      <c r="R16">
+        <v>8.320214423039999</v>
+      </c>
+      <c r="S16">
+        <v>4.970516635960074E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.970516635960074E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>32.221985</v>
+      </c>
+      <c r="N17">
+        <v>96.665955</v>
+      </c>
+      <c r="O17">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="P17">
+        <v>0.3213744562815322</v>
+      </c>
+      <c r="Q17">
+        <v>0.7567870210333333</v>
+      </c>
+      <c r="R17">
+        <v>6.8110831893</v>
+      </c>
+      <c r="S17">
+        <v>4.068957911418106E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.068957911418106E-05</v>
       </c>
     </row>
   </sheetData>
